--- a/data/pca/factorExposure/factorExposure_2013-03-12.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-03-12.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.0003693055031187436</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.002144350661514766</v>
+      </c>
+      <c r="C2">
+        <v>-0.03317140492879357</v>
+      </c>
+      <c r="D2">
+        <v>0.001310359452906015</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.001778923349985057</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.005965721332063291</v>
+      </c>
+      <c r="C4">
+        <v>-0.08474080723181866</v>
+      </c>
+      <c r="D4">
+        <v>-0.07868358950995852</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.0004292024749214087</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01359531537678933</v>
+      </c>
+      <c r="C6">
+        <v>-0.1138844254607313</v>
+      </c>
+      <c r="D6">
+        <v>-0.03238512918025591</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.001576734201219015</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.004669206606681311</v>
+      </c>
+      <c r="C7">
+        <v>-0.0560311155039922</v>
+      </c>
+      <c r="D7">
+        <v>-0.03341197762236874</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>-0.0003512111547157224</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.005629836218122717</v>
+      </c>
+      <c r="C8">
+        <v>-0.03869309234122259</v>
+      </c>
+      <c r="D8">
+        <v>-0.04260000717637078</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.004143580210147629</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.004100535249548358</v>
+      </c>
+      <c r="C9">
+        <v>-0.07058918142214224</v>
+      </c>
+      <c r="D9">
+        <v>-0.07043227317718613</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.004231246428478978</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.005298037190986332</v>
+      </c>
+      <c r="C10">
+        <v>-0.05957063546786945</v>
+      </c>
+      <c r="D10">
+        <v>0.2002486622336287</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.002658485135561639</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005326259696652183</v>
+      </c>
+      <c r="C11">
+        <v>-0.08063243707257965</v>
+      </c>
+      <c r="D11">
+        <v>-0.05965785077271278</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.0003827611056801827</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.003964544796332965</v>
+      </c>
+      <c r="C12">
+        <v>-0.06444318740998682</v>
+      </c>
+      <c r="D12">
+        <v>-0.04568646911606541</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.003166599887030907</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.008521958947285095</v>
+      </c>
+      <c r="C13">
+        <v>-0.06679981359737919</v>
+      </c>
+      <c r="D13">
+        <v>-0.06922509124986893</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.001320865311339553</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001339075054031106</v>
+      </c>
+      <c r="C14">
+        <v>-0.04620325866223847</v>
+      </c>
+      <c r="D14">
+        <v>-0.00791234802783362</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.00100376052079061</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.005821290343404582</v>
+      </c>
+      <c r="C15">
+        <v>-0.04249674708744747</v>
+      </c>
+      <c r="D15">
+        <v>-0.03064719144615588</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.001162303807590174</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.004916192678953111</v>
+      </c>
+      <c r="C16">
+        <v>-0.06662308182775541</v>
+      </c>
+      <c r="D16">
+        <v>-0.04516511500955266</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.0001789365628079551</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.008796965319157307</v>
+      </c>
+      <c r="C20">
+        <v>-0.06790342839785689</v>
+      </c>
+      <c r="D20">
+        <v>-0.04628821750903273</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.00517074084887578</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.00971475061768122</v>
+      </c>
+      <c r="C21">
+        <v>-0.02323999544869049</v>
+      </c>
+      <c r="D21">
+        <v>-0.03632664852680793</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01786867421785824</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.006836678275645294</v>
+      </c>
+      <c r="C22">
+        <v>-0.0946390065580948</v>
+      </c>
+      <c r="D22">
+        <v>-0.1014504824566778</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01818136006870189</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.006657584179624791</v>
+      </c>
+      <c r="C23">
+        <v>-0.09542987823898827</v>
+      </c>
+      <c r="D23">
+        <v>-0.1015506897619578</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.00181729729514127</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.005024839809998271</v>
+      </c>
+      <c r="C24">
+        <v>-0.07592546138641955</v>
+      </c>
+      <c r="D24">
+        <v>-0.05833513024738625</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.003631441575508002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.002744820906637964</v>
+      </c>
+      <c r="C25">
+        <v>-0.07847555801223274</v>
+      </c>
+      <c r="D25">
+        <v>-0.06473725285829894</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.005739604054089993</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003479152793425225</v>
+      </c>
+      <c r="C26">
+        <v>-0.0414744017919469</v>
+      </c>
+      <c r="D26">
+        <v>-0.02446407436626164</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.004041728873913924</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.001247672021228903</v>
+      </c>
+      <c r="C28">
+        <v>-0.1069753647059909</v>
+      </c>
+      <c r="D28">
+        <v>0.319544531122165</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.001004226527787875</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.002966429223772872</v>
+      </c>
+      <c r="C29">
+        <v>-0.04960577279331133</v>
+      </c>
+      <c r="D29">
+        <v>-0.003672416774128146</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.003204854676620142</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.008889548911542438</v>
+      </c>
+      <c r="C30">
+        <v>-0.1455568231049599</v>
+      </c>
+      <c r="D30">
+        <v>-0.09975752291169504</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.0009694766068496675</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006046159264234685</v>
+      </c>
+      <c r="C31">
+        <v>-0.04499196753930741</v>
+      </c>
+      <c r="D31">
+        <v>-0.03318242530582648</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-8.828674433610484e-05</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.003739013864922227</v>
+      </c>
+      <c r="C32">
+        <v>-0.0406906715391183</v>
+      </c>
+      <c r="D32">
+        <v>-0.02382026739099805</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.002965998302187826</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.007943802279775664</v>
+      </c>
+      <c r="C33">
+        <v>-0.08697948858631732</v>
+      </c>
+      <c r="D33">
+        <v>-0.06990064321844257</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.004141619585748283</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.00377069035089373</v>
+      </c>
+      <c r="C34">
+        <v>-0.05896134532268261</v>
+      </c>
+      <c r="D34">
+        <v>-0.0499426110111612</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.002436085548166037</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.004721759360590218</v>
+      </c>
+      <c r="C35">
+        <v>-0.03910129370380035</v>
+      </c>
+      <c r="D35">
+        <v>-0.01371712543416126</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.004016229147382001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001458662672366175</v>
+      </c>
+      <c r="C36">
+        <v>-0.0245870953311386</v>
+      </c>
+      <c r="D36">
+        <v>-0.02033636126204004</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.002663328533603934</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.009412474462437948</v>
+      </c>
+      <c r="C38">
+        <v>-0.03369280668630718</v>
+      </c>
+      <c r="D38">
+        <v>-0.02097856641383196</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01211223510110401</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.001085716827322562</v>
+      </c>
+      <c r="C39">
+        <v>-0.1174489671128003</v>
+      </c>
+      <c r="D39">
+        <v>-0.0704352603292657</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.009288906337927436</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.002034140949700854</v>
+      </c>
+      <c r="C40">
+        <v>-0.08883902297630256</v>
+      </c>
+      <c r="D40">
+        <v>-0.01550514271264695</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>-0.0003678427484738018</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007154949892751686</v>
+      </c>
+      <c r="C41">
+        <v>-0.03788121662572858</v>
+      </c>
+      <c r="D41">
+        <v>-0.03515450581128961</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.00304527823936701</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.003521546703150703</v>
+      </c>
+      <c r="C43">
+        <v>-0.05200051509937999</v>
+      </c>
+      <c r="D43">
+        <v>-0.02378053289890881</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.002843128747264883</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.003137450300918539</v>
+      </c>
+      <c r="C44">
+        <v>-0.112855458289154</v>
+      </c>
+      <c r="D44">
+        <v>-0.07067614188101401</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.001394864293380335</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.002264920793333152</v>
+      </c>
+      <c r="C46">
+        <v>-0.03496031340106865</v>
+      </c>
+      <c r="D46">
+        <v>-0.02873369514268132</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>0.0001845871238510686</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002678464745872277</v>
+      </c>
+      <c r="C47">
+        <v>-0.03761343786653121</v>
+      </c>
+      <c r="D47">
+        <v>-0.0268950738216123</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.003669429639248024</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006324319942052253</v>
+      </c>
+      <c r="C48">
+        <v>-0.02891412009219612</v>
+      </c>
+      <c r="D48">
+        <v>-0.03125309365893039</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.01346922390212471</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01447288250847506</v>
+      </c>
+      <c r="C49">
+        <v>-0.1835870124896418</v>
+      </c>
+      <c r="D49">
+        <v>-0.01211646255486082</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.0007038724175642576</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003542044461580538</v>
+      </c>
+      <c r="C50">
+        <v>-0.04431212330423741</v>
+      </c>
+      <c r="D50">
+        <v>-0.03550005297509759</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.0006831283647088143</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.00424443838397626</v>
+      </c>
+      <c r="C51">
+        <v>-0.02549985454778912</v>
+      </c>
+      <c r="D51">
+        <v>-0.02018687445086211</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.0004841496373495909</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.0201904755201811</v>
+      </c>
+      <c r="C53">
+        <v>-0.1689592403752443</v>
+      </c>
+      <c r="D53">
+        <v>-0.03692450992877708</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.001522954835962887</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008576552869621617</v>
+      </c>
+      <c r="C54">
+        <v>-0.05569220121695542</v>
+      </c>
+      <c r="D54">
+        <v>-0.042365370642577</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.004257591285844717</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009265148259355462</v>
+      </c>
+      <c r="C55">
+        <v>-0.1101868173852275</v>
+      </c>
+      <c r="D55">
+        <v>-0.04445492812451554</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.003000128426187371</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.01960061173741344</v>
+      </c>
+      <c r="C56">
+        <v>-0.1758387680997783</v>
+      </c>
+      <c r="D56">
+        <v>-0.03475133618203133</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.007116037844992196</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.0194809930569483</v>
+      </c>
+      <c r="C58">
+        <v>-0.1117766778683614</v>
+      </c>
+      <c r="D58">
+        <v>-0.05555763251536942</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.006938463302258483</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.009008240842307235</v>
+      </c>
+      <c r="C59">
+        <v>-0.160029196146433</v>
+      </c>
+      <c r="D59">
+        <v>0.304747180192516</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.004047028580365572</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02289445344895029</v>
+      </c>
+      <c r="C60">
+        <v>-0.2232676805063941</v>
+      </c>
+      <c r="D60">
+        <v>-0.02082820502819014</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01395321431271772</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.00216426873650746</v>
+      </c>
+      <c r="C61">
+        <v>-0.09518334882791002</v>
+      </c>
+      <c r="D61">
+        <v>-0.05750128302205316</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1686063510130081</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1441455441385674</v>
+      </c>
+      <c r="C62">
+        <v>-0.08992120305237432</v>
+      </c>
+      <c r="D62">
+        <v>-0.04613775055930499</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.001206181787845215</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006081540481602016</v>
+      </c>
+      <c r="C63">
+        <v>-0.05693008526898014</v>
+      </c>
+      <c r="D63">
+        <v>-0.02378280069199589</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.00501945391532577</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01474875486766803</v>
+      </c>
+      <c r="C64">
+        <v>-0.1040832978175537</v>
+      </c>
+      <c r="D64">
+        <v>-0.05851865941856149</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.002612948599157294</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01734484978163993</v>
+      </c>
+      <c r="C65">
+        <v>-0.1212696567497</v>
+      </c>
+      <c r="D65">
+        <v>-0.01670266241103714</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.007042857430206871</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01232140101339516</v>
+      </c>
+      <c r="C66">
+        <v>-0.159683468267035</v>
+      </c>
+      <c r="D66">
+        <v>-0.1121278614419781</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.003972737983447253</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.0154395974657081</v>
+      </c>
+      <c r="C67">
+        <v>-0.06421335825369878</v>
+      </c>
+      <c r="D67">
+        <v>-0.02975676486174612</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.006147587014331555</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.0004507869569574153</v>
+      </c>
+      <c r="C68">
+        <v>-0.0877531328451859</v>
+      </c>
+      <c r="D68">
+        <v>0.2520790885761821</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.002785427303315521</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.005960244753075619</v>
+      </c>
+      <c r="C69">
+        <v>-0.05052122404415321</v>
+      </c>
+      <c r="D69">
+        <v>-0.03957711976945791</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>1.342301685619197e-05</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.001867528192985225</v>
+      </c>
+      <c r="C70">
+        <v>-0.002797602761173674</v>
+      </c>
+      <c r="D70">
+        <v>-0.001048131211010427</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.0003124559140711524</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.005641437289515609</v>
+      </c>
+      <c r="C71">
+        <v>-0.09753529240226826</v>
+      </c>
+      <c r="D71">
+        <v>0.2997035433707866</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.004787461359158319</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01547156555923021</v>
+      </c>
+      <c r="C72">
+        <v>-0.1504238305587727</v>
+      </c>
+      <c r="D72">
+        <v>-0.02308360996684615</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.01272327938472594</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.02897461047710069</v>
+      </c>
+      <c r="C73">
+        <v>-0.2772678415224368</v>
+      </c>
+      <c r="D73">
+        <v>-0.04484822457341686</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.005085644423323907</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.001385065635938783</v>
+      </c>
+      <c r="C74">
+        <v>-0.1048832960406911</v>
+      </c>
+      <c r="D74">
+        <v>-0.03977004697013552</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.002166711662845193</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01061403672524468</v>
+      </c>
+      <c r="C75">
+        <v>-0.1298685802491834</v>
+      </c>
+      <c r="D75">
+        <v>-0.02404004736664084</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.009321656996976653</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02130896684553918</v>
+      </c>
+      <c r="C76">
+        <v>-0.150428870109007</v>
+      </c>
+      <c r="D76">
+        <v>-0.06495693257392923</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.001263754940765974</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02342488391460584</v>
+      </c>
+      <c r="C77">
+        <v>-0.1335683943508069</v>
+      </c>
+      <c r="D77">
+        <v>-0.04705795585209711</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.0009115088929970657</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01431877766923485</v>
+      </c>
+      <c r="C78">
+        <v>-0.09504620154644024</v>
+      </c>
+      <c r="D78">
+        <v>-0.06581549461331712</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02377299449486589</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03703339095466741</v>
+      </c>
+      <c r="C79">
+        <v>-0.1564873462865899</v>
+      </c>
+      <c r="D79">
+        <v>-0.033140019169705</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.004502171660672338</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01055315836371361</v>
+      </c>
+      <c r="C80">
+        <v>-0.0429905430166452</v>
+      </c>
+      <c r="D80">
+        <v>-0.03020365446871093</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.0009895884419262645</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01464860024094122</v>
+      </c>
+      <c r="C81">
+        <v>-0.1269749091518836</v>
+      </c>
+      <c r="D81">
+        <v>-0.04485969185334197</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.00579885959440044</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.01951254149128352</v>
+      </c>
+      <c r="C82">
+        <v>-0.1443090920354679</v>
+      </c>
+      <c r="D82">
+        <v>-0.04331294792561106</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.008910982480038141</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.009983861157479311</v>
+      </c>
+      <c r="C83">
+        <v>-0.05733300127427876</v>
+      </c>
+      <c r="D83">
+        <v>-0.05459354765233008</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01317178458405049</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01164722518725616</v>
+      </c>
+      <c r="C84">
+        <v>-0.03782666172872924</v>
+      </c>
+      <c r="D84">
+        <v>0.006622709419503714</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01485398016084485</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02781347900966261</v>
+      </c>
+      <c r="C85">
+        <v>-0.1298040951385969</v>
+      </c>
+      <c r="D85">
+        <v>-0.04572478590814819</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.0007385322163396611</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.005267194148229475</v>
+      </c>
+      <c r="C86">
+        <v>-0.04901749448318972</v>
+      </c>
+      <c r="D86">
+        <v>-0.02394213035729111</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.004787662594846761</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.01023990909130258</v>
+      </c>
+      <c r="C87">
+        <v>-0.1336538126037472</v>
+      </c>
+      <c r="D87">
+        <v>-0.06307857055448193</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01299444964509722</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.00313473638861204</v>
+      </c>
+      <c r="C88">
+        <v>-0.06741291138676471</v>
+      </c>
+      <c r="D88">
+        <v>-0.009516514606179293</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01449885830434493</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.002069272892398994</v>
+      </c>
+      <c r="C89">
+        <v>-0.14550290193</v>
+      </c>
+      <c r="D89">
+        <v>0.34868884060253</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.002153963833696977</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.006486649273995409</v>
+      </c>
+      <c r="C90">
+        <v>-0.1216371170590108</v>
+      </c>
+      <c r="D90">
+        <v>0.3242603407511255</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.001216437272467584</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.01016553741514887</v>
+      </c>
+      <c r="C91">
+        <v>-0.103123612606845</v>
+      </c>
+      <c r="D91">
+        <v>-0.02430938035209097</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.008463757905912367</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.0001863629915734084</v>
+      </c>
+      <c r="C92">
+        <v>-0.1347218239419872</v>
+      </c>
+      <c r="D92">
+        <v>0.3358404704432351</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.0003312356766275347</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.004456625775801223</v>
+      </c>
+      <c r="C93">
+        <v>-0.1049272398013421</v>
+      </c>
+      <c r="D93">
+        <v>0.3141197672970918</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.004310863083696781</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02221081203676666</v>
+      </c>
+      <c r="C94">
+        <v>-0.1525459046709472</v>
+      </c>
+      <c r="D94">
+        <v>-0.04814501264779862</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.005127258499036402</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01596100938191276</v>
+      </c>
+      <c r="C95">
+        <v>-0.1276942617025451</v>
+      </c>
+      <c r="D95">
+        <v>-0.06119739452532098</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>-0.002356420738855704</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.0339974106749482</v>
+      </c>
+      <c r="C97">
+        <v>-0.1950511337730081</v>
+      </c>
+      <c r="D97">
+        <v>-0.004694218283602703</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.004161349794694492</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03582586953521882</v>
+      </c>
+      <c r="C98">
+        <v>-0.24684538091064</v>
+      </c>
+      <c r="D98">
+        <v>-0.05398373992550795</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9837784319009045</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9827303045418365</v>
+      </c>
+      <c r="C99">
+        <v>0.1117331879042749</v>
+      </c>
+      <c r="D99">
+        <v>0.02785311965784724</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.000952298110898793</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.003012058328625311</v>
+      </c>
+      <c r="C101">
+        <v>-0.04973785392699485</v>
+      </c>
+      <c r="D101">
+        <v>-0.003835563198746251</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
